--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2591.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2591.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7810370577769161</v>
+        <v>1.699881911277771</v>
       </c>
       <c r="B1">
-        <v>1.29334858306802</v>
+        <v>2.89067530632019</v>
       </c>
       <c r="C1">
-        <v>3.383769529451966</v>
+        <v>6.075221538543701</v>
       </c>
       <c r="D1">
-        <v>2.344694480133519</v>
+        <v>2.207178592681885</v>
       </c>
       <c r="E1">
-        <v>1.009523805157599</v>
+        <v>0.7949870228767395</v>
       </c>
     </row>
   </sheetData>
